--- a/DataHashModule.xlsx
+++ b/DataHashModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9d83a7bba241618/Documentos/Programación/Python_scripts/ObtenerHash/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github projects\GetFileHash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{8E9CB4AC-63CA-4214-87FE-089DCEE976C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D8E27BA8-DEFB-4D1F-A319-C4D560EB1D03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E717C-ECE6-4569-B5CA-62FB4AD7D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1321B2E7-5E4C-4308-9D9B-09E7046350C5}"/>
+    <workbookView xWindow="-38510" yWindow="-80" windowWidth="38620" windowHeight="21220" xr2:uid="{1321B2E7-5E4C-4308-9D9B-09E7046350C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Nombre deseado" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Para hash</t>
   </si>
   <si>
-    <t>C:\Users\Diego\OneDrive\Documentos\Programación\Python_scripts\ObtenerHash\Hashes.docx</t>
-  </si>
-  <si>
     <t>2a)</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>C:\Users\Diego\OneDrive\Documentos\Programación\Python_scripts\ObtenerHash\CarpetasPrueHash</t>
+  </si>
+  <si>
+    <t>./ObtenerHash\Hashes.docx</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,13 +543,13 @@
         <v>1a) Pegar descripción manual del requisito que se necesita En caso de que la descripción se divida en subíndices se ponen aquí</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="3" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>16</v>
